--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_14_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>367016.5878710271</v>
+        <v>440706.9498654362</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11732728.29319231</v>
+        <v>11790039.00453981</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12501818.64948305</v>
+        <v>12580513.79884685</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7171903.018210379</v>
+        <v>7131874.159786243</v>
       </c>
     </row>
     <row r="11">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.018462044011844</v>
+      </c>
+      <c r="D8" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>4.562286607642875</v>
       </c>
-      <c r="D8" t="n">
-        <v>4.018462044011843</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1217,64 +1217,64 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4.018462044011844</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>4.018462044011844</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>19.98946990210342</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.2897156032232</v>
+        <v>129.538278081653</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>19.17402078151663</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>147.7683073284692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.14048255187998</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>25.2707688309099</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>263.7138800015063</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>232.2791855053266</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>66.44151201253744</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>147.1499354121988</v>
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.05729861665554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>67.49083026909983</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>18.14576679396761</v>
       </c>
       <c r="U16" t="n">
         <v>263.7138800015063</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>263.7138800015063</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>289.1772816522786</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>328.3120818032227</v>
+        <v>235.0432859142176</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>296.5549792672365</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>328.3120818032227</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>328.3120818032227</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>110.9251085616634</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.7922105299372</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>296.5549792672365</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>146.2600094761337</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>97.15822334530232</v>
+        <v>194.5958871427908</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8504869522692</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>19.7161579994436</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.9957977197259</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.996523513403</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2531608643872</v>
+        <v>286.2558497916201</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>21.5089593765155</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>296.5549792672365</v>
       </c>
       <c r="C20" t="n">
-        <v>328.3120818032227</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>328.3120818032227</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>289.1772816522786</v>
+        <v>261.2056257385817</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>328.3120818032227</v>
+        <v>296.5549792672365</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>296.5549792672365</v>
       </c>
     </row>
     <row r="21">
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>14.37707135552867</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>146.0204464326186</v>
       </c>
       <c r="T21" t="n">
-        <v>194.3588768098552</v>
+        <v>194.5958871427908</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8466184484672</v>
+        <v>225.8504869522692</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>158.5709906763021</v>
       </c>
       <c r="W21" t="n">
-        <v>209.6517636734169</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>98.07152024334887</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>121.7441248307458</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2531608643872</v>
+        <v>286.2558497916201</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.94499713970298</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>36.35243252145602</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>81.04412589914942</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>45.88750724771318</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
         <v>65.70991267247049</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>138.0793653087012</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>331.1490467712053</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,7 +2639,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2651,7 +2651,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H27" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269651</v>
       </c>
       <c r="I27" t="n">
         <v>20.22295923705015</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>115.8566875815956</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.3066000448042</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>176.1581058090401</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>65.70991267247049</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>44.66297864051417</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
         <v>251.045250128462</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>136.6104553879979</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I30" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923704953</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>88.40274410667527</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>142.8412861002816</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>358.5348545515847</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>130.7128001036276</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>144.2554484570975</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>133.8586356038731</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2271541212006</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>12.74710637510987</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
-        <v>179.1552219187528</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
         <v>251.045250128462</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923705015</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>129.0567785473699</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.27659234081838</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>245.3924319518753</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>117.2278100992607</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,7 +3593,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>135.3343964518635</v>
@@ -3602,7 +3602,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923704953</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>34.15392480244341</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>42.73581327427735</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,16 +3745,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>86.32573495539935</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>250.7942834133529</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>134.3646350838592</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T42" t="n">
         <v>192.0665623188214</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>108.4977555231459</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>154.744187625746</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>36.35243252145465</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>261.5979200474269</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923704908</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>88.51374188830047</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>122.382907013107</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.032405809070742</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="C8" t="n">
-        <v>4.424035498320363</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="D8" t="n">
-        <v>0.36498292861143</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E8" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F8" t="n">
-        <v>0.36498292861143</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G8" t="n">
         <v>0.36498292861143</v>
@@ -4804,22 +4804,22 @@
         <v>0.36498292861143</v>
       </c>
       <c r="J8" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.36498292861143</v>
+      </c>
+      <c r="M8" t="n">
         <v>4.881646670177876</v>
       </c>
-      <c r="K8" t="n">
-        <v>4.881646670177876</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.881646670177876</v>
-      </c>
-      <c r="M8" t="n">
-        <v>9.215818947438606</v>
-      </c>
       <c r="N8" t="n">
-        <v>13.73248268900505</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="O8" t="n">
-        <v>13.73248268900505</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="P8" t="n">
         <v>18.2491464305715</v>
@@ -4828,28 +4828,28 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R8" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S8" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T8" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U8" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V8" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W8" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X8" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.64077611982112</v>
+        <v>18.2491464305715</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C9" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D9" t="n">
         <v>0.36498292861143</v>
@@ -4892,10 +4892,10 @@
         <v>4.881646670177876</v>
       </c>
       <c r="M9" t="n">
-        <v>9.398310411744323</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N9" t="n">
-        <v>13.91497415331077</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O9" t="n">
         <v>18.2491464305715</v>
@@ -4907,13 +4907,13 @@
         <v>18.2491464305715</v>
       </c>
       <c r="R9" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="S9" t="n">
-        <v>13.64077611982112</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="T9" t="n">
-        <v>9.581723550112187</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="U9" t="n">
         <v>9.581723550112187</v>
@@ -4922,13 +4922,13 @@
         <v>4.973353239361809</v>
       </c>
       <c r="W9" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="X9" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.973353239361809</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
     <row r="10">
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.36498292861143</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="C10" t="n">
-        <v>0.36498292861143</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="D10" t="n">
-        <v>0.36498292861143</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="E10" t="n">
-        <v>0.36498292861143</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="F10" t="n">
-        <v>0.36498292861143</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="G10" t="n">
-        <v>0.36498292861143</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="H10" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="I10" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="J10" t="n">
         <v>0.36498292861143</v>
       </c>
       <c r="K10" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L10" t="n">
-        <v>0.36498292861143</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M10" t="n">
-        <v>4.881646670177876</v>
+        <v>9.398310411744323</v>
       </c>
       <c r="N10" t="n">
-        <v>9.398310411744323</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O10" t="n">
-        <v>13.91497415331077</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P10" t="n">
         <v>18.2491464305715</v>
@@ -4995,19 +4995,19 @@
         <v>18.2491464305715</v>
       </c>
       <c r="U10" t="n">
-        <v>14.19009386086257</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V10" t="n">
-        <v>9.581723550112187</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W10" t="n">
-        <v>4.973353239361809</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X10" t="n">
-        <v>0.36498292861143</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.36498292861143</v>
+        <v>18.2491464305715</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>553.8524235344764</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="C11" t="n">
-        <v>553.8524235344764</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="D11" t="n">
-        <v>287.4747669672985</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="E11" t="n">
-        <v>287.4747669672985</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="F11" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="G11" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="H11" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I11" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J11" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K11" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L11" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M11" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N11" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O11" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P11" t="n">
         <v>1011.026904601763</v>
@@ -5068,25 +5068,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S11" t="n">
-        <v>1034.664136266526</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T11" t="n">
-        <v>820.2300801016545</v>
+        <v>924.0087744690013</v>
       </c>
       <c r="U11" t="n">
-        <v>820.2300801016545</v>
+        <v>670.32375641013</v>
       </c>
       <c r="V11" t="n">
-        <v>820.2300801016545</v>
+        <v>670.32375641013</v>
       </c>
       <c r="W11" t="n">
-        <v>820.2300801016545</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="X11" t="n">
-        <v>820.2300801016545</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="Y11" t="n">
-        <v>553.8524235344764</v>
+        <v>403.9460998429521</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.0971104001205</v>
+        <v>189.3992178204795</v>
       </c>
       <c r="C12" t="n">
-        <v>21.0971104001205</v>
+        <v>189.3992178204795</v>
       </c>
       <c r="D12" t="n">
-        <v>21.0971104001205</v>
+        <v>40.4648081592282</v>
       </c>
       <c r="E12" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F12" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G12" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H12" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I12" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J12" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004806</v>
       </c>
       <c r="K12" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699347</v>
       </c>
       <c r="L12" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M12" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N12" t="n">
-        <v>643.1802110290002</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O12" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P12" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q12" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R12" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S12" t="n">
-        <v>887.8833378166546</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T12" t="n">
-        <v>887.8833378166546</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U12" t="n">
-        <v>659.7474918534681</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V12" t="n">
-        <v>424.5953836217254</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W12" t="n">
-        <v>170.3580268935237</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X12" t="n">
-        <v>170.3580268935237</v>
+        <v>357.6145548405475</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.0971104001205</v>
+        <v>357.6145548405475</v>
       </c>
     </row>
     <row r="13">
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.0971104001205</v>
+        <v>46.62313952225171</v>
       </c>
       <c r="C13" t="n">
-        <v>21.0971104001205</v>
+        <v>46.62313952225171</v>
       </c>
       <c r="D13" t="n">
-        <v>21.0971104001205</v>
+        <v>46.62313952225171</v>
       </c>
       <c r="E13" t="n">
-        <v>21.0971104001205</v>
+        <v>46.62313952225171</v>
       </c>
       <c r="F13" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G13" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H13" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I13" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J13" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K13" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L13" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M13" t="n">
         <v>527.7368878375337</v>
       </c>
       <c r="N13" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O13" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P13" t="n">
         <v>1048.360858816803</v>
@@ -5226,25 +5226,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S13" t="n">
-        <v>848.0684854165361</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T13" t="n">
-        <v>848.0684854165361</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U13" t="n">
-        <v>581.690828849358</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V13" t="n">
-        <v>327.0063406434712</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="W13" t="n">
-        <v>327.0063406434712</v>
+        <v>267.4157186657818</v>
       </c>
       <c r="X13" t="n">
-        <v>99.01678974545382</v>
+        <v>267.4157186657818</v>
       </c>
       <c r="Y13" t="n">
-        <v>99.01678974545382</v>
+        <v>46.62313952225171</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>553.8524235344767</v>
+        <v>788.477863438847</v>
       </c>
       <c r="C14" t="n">
-        <v>287.4747669672986</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="D14" t="n">
         <v>287.4747669672986</v>
@@ -5278,22 +5278,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J14" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K14" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L14" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M14" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N14" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O14" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P14" t="n">
         <v>1011.026904601763</v>
@@ -5314,16 +5314,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V14" t="n">
-        <v>820.2300801016547</v>
+        <v>788.477863438847</v>
       </c>
       <c r="W14" t="n">
-        <v>820.2300801016547</v>
+        <v>788.477863438847</v>
       </c>
       <c r="X14" t="n">
-        <v>553.8524235344767</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y14" t="n">
-        <v>553.8524235344767</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>455.2717565768139</v>
+        <v>188.6939106867338</v>
       </c>
       <c r="C15" t="n">
-        <v>280.8187272956869</v>
+        <v>188.6939106867338</v>
       </c>
       <c r="D15" t="n">
-        <v>280.8187272956869</v>
+        <v>188.6939106867338</v>
       </c>
       <c r="E15" t="n">
-        <v>121.5812722902314</v>
+        <v>188.6939106867338</v>
       </c>
       <c r="F15" t="n">
         <v>121.5812722902314</v>
@@ -5381,28 +5381,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R15" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S15" t="n">
-        <v>887.8833378166548</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="T15" t="n">
-        <v>887.8833378166548</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="U15" t="n">
-        <v>887.8833378166548</v>
+        <v>678.0833756466782</v>
       </c>
       <c r="V15" t="n">
-        <v>887.8833378166548</v>
+        <v>442.9312674149355</v>
       </c>
       <c r="W15" t="n">
-        <v>633.6459810884533</v>
+        <v>188.6939106867338</v>
       </c>
       <c r="X15" t="n">
-        <v>633.6459810884533</v>
+        <v>188.6939106867338</v>
       </c>
       <c r="Y15" t="n">
-        <v>623.487093596882</v>
+        <v>188.6939106867338</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>325.1351228789782</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C16" t="n">
-        <v>325.1351228789782</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D16" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E16" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F16" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G16" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H16" t="n">
         <v>21.0971104001205</v>
@@ -5439,19 +5439,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K16" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L16" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M16" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N16" t="n">
-        <v>739.1822330227048</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O16" t="n">
-        <v>918.4699372075545</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P16" t="n">
         <v>1048.360858816803</v>
@@ -5460,28 +5460,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R16" t="n">
-        <v>926.0629918407079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S16" t="n">
-        <v>857.8904360133344</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T16" t="n">
-        <v>857.8904360133344</v>
+        <v>1036.526462638381</v>
       </c>
       <c r="U16" t="n">
-        <v>591.5127794461563</v>
+        <v>770.1488060712028</v>
       </c>
       <c r="V16" t="n">
-        <v>591.5127794461563</v>
+        <v>515.4643178653159</v>
       </c>
       <c r="W16" t="n">
-        <v>325.1351228789782</v>
+        <v>249.0866612981378</v>
       </c>
       <c r="X16" t="n">
-        <v>325.1351228789782</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y16" t="n">
-        <v>325.1351228789782</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1021.15006291766</v>
+        <v>672.7379071728108</v>
       </c>
       <c r="C17" t="n">
-        <v>689.5216974598591</v>
+        <v>435.320446653399</v>
       </c>
       <c r="D17" t="n">
-        <v>689.5216974598591</v>
+        <v>135.7699625450793</v>
       </c>
       <c r="E17" t="n">
-        <v>689.5216974598591</v>
+        <v>135.7699625450793</v>
       </c>
       <c r="F17" t="n">
-        <v>357.8933320020585</v>
+        <v>135.7699625450793</v>
       </c>
       <c r="G17" t="n">
-        <v>26.26496654425781</v>
+        <v>135.7699625450793</v>
       </c>
       <c r="H17" t="n">
-        <v>26.26496654425781</v>
+        <v>135.7699625450793</v>
       </c>
       <c r="I17" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="J17" t="n">
-        <v>73.23431383623517</v>
+        <v>61.45946368660748</v>
       </c>
       <c r="K17" t="n">
-        <v>194.3677081256516</v>
+        <v>168.7530630784997</v>
       </c>
       <c r="L17" t="n">
-        <v>381.5461569470417</v>
+        <v>338.7620225311326</v>
       </c>
       <c r="M17" t="n">
-        <v>621.487684130914</v>
+        <v>559.5991845858334</v>
       </c>
       <c r="N17" t="n">
-        <v>869.9255244545978</v>
+        <v>788.6235311795568</v>
       </c>
       <c r="O17" t="n">
-        <v>1091.183070957065</v>
+        <v>991.5494660546924</v>
       </c>
       <c r="P17" t="n">
-        <v>1245.520267063711</v>
+        <v>1130.241055754235</v>
       </c>
       <c r="Q17" t="n">
-        <v>1313.248327212891</v>
+        <v>1186.219917068946</v>
       </c>
       <c r="R17" t="n">
-        <v>1313.248327212891</v>
+        <v>1186.219917068946</v>
       </c>
       <c r="S17" t="n">
-        <v>1313.248327212891</v>
+        <v>1186.219917068946</v>
       </c>
       <c r="T17" t="n">
-        <v>1313.248327212891</v>
+        <v>972.2883912811305</v>
       </c>
       <c r="U17" t="n">
-        <v>1313.248327212891</v>
+        <v>972.2883912811305</v>
       </c>
       <c r="V17" t="n">
-        <v>1313.248327212891</v>
+        <v>672.7379071728108</v>
       </c>
       <c r="W17" t="n">
-        <v>1313.248327212891</v>
+        <v>672.7379071728108</v>
       </c>
       <c r="X17" t="n">
-        <v>1313.248327212891</v>
+        <v>672.7379071728108</v>
       </c>
       <c r="Y17" t="n">
-        <v>1313.248327212891</v>
+        <v>672.7379071728108</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>349.6524054866361</v>
+        <v>198.1774276225059</v>
       </c>
       <c r="C18" t="n">
-        <v>175.1993762055091</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="D18" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="E18" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="F18" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="G18" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="H18" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="I18" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="J18" t="n">
-        <v>35.42174106212504</v>
+        <v>27.38129779292707</v>
       </c>
       <c r="K18" t="n">
-        <v>129.2269519076716</v>
+        <v>111.7863461429224</v>
       </c>
       <c r="L18" t="n">
-        <v>301.6821753266926</v>
+        <v>271.6018910345711</v>
       </c>
       <c r="M18" t="n">
-        <v>522.2861550415681</v>
+        <v>477.4559620831241</v>
       </c>
       <c r="N18" t="n">
-        <v>763.1375105876151</v>
+        <v>703.1670227701741</v>
       </c>
       <c r="O18" t="n">
-        <v>961.2496515818839</v>
+        <v>887.4287518651527</v>
       </c>
       <c r="P18" t="n">
-        <v>1269.80223336495</v>
+        <v>1150.204692908121</v>
       </c>
       <c r="Q18" t="n">
-        <v>1313.248327212891</v>
+        <v>1186.219917068946</v>
       </c>
       <c r="R18" t="n">
-        <v>1313.248327212891</v>
+        <v>1186.219917068946</v>
       </c>
       <c r="S18" t="n">
-        <v>1313.248327212891</v>
+        <v>1186.219917068946</v>
       </c>
       <c r="T18" t="n">
-        <v>1215.108707672181</v>
+        <v>989.6584149045108</v>
       </c>
       <c r="U18" t="n">
-        <v>1215.108707672181</v>
+        <v>761.5266099022186</v>
       </c>
       <c r="V18" t="n">
-        <v>979.9565994404386</v>
+        <v>761.5266099022186</v>
       </c>
       <c r="W18" t="n">
-        <v>725.719242712237</v>
+        <v>761.5266099022186</v>
       </c>
       <c r="X18" t="n">
-        <v>517.8677425067042</v>
+        <v>553.6751096966858</v>
       </c>
       <c r="Y18" t="n">
-        <v>517.8677425067042</v>
+        <v>345.9148109317319</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.1802776548069</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="C19" t="n">
-        <v>46.1802776548069</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="D19" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="E19" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="F19" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="G19" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="H19" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="I19" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="J19" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="K19" t="n">
-        <v>143.1150589356041</v>
+        <v>134.904349876789</v>
       </c>
       <c r="L19" t="n">
-        <v>348.169381720732</v>
+        <v>332.7028445274894</v>
       </c>
       <c r="M19" t="n">
-        <v>574.7595374545931</v>
+        <v>551.6427468357708</v>
       </c>
       <c r="N19" t="n">
-        <v>801.3965021608565</v>
+        <v>770.8113640437575</v>
       </c>
       <c r="O19" t="n">
-        <v>994.7161258083059</v>
+        <v>957.2327599894779</v>
       </c>
       <c r="P19" t="n">
-        <v>1136.613778606802</v>
+        <v>1093.227787283485</v>
       </c>
       <c r="Q19" t="n">
-        <v>1151.421278114136</v>
+        <v>1103.948614848407</v>
       </c>
       <c r="R19" t="n">
-        <v>1027.183098599262</v>
+        <v>1103.948614848407</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.183098599262</v>
+        <v>1103.948614848407</v>
       </c>
       <c r="T19" t="n">
-        <v>1027.183098599262</v>
+        <v>878.6996011985048</v>
       </c>
       <c r="U19" t="n">
-        <v>738.0384916655373</v>
+        <v>589.5522781766663</v>
       </c>
       <c r="V19" t="n">
-        <v>738.0384916655373</v>
+        <v>334.8677899707794</v>
       </c>
       <c r="W19" t="n">
-        <v>448.6213216285767</v>
+        <v>45.45061993381881</v>
       </c>
       <c r="X19" t="n">
-        <v>448.6213216285767</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="Y19" t="n">
-        <v>227.8287424850466</v>
+        <v>23.72439834137892</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>981.61996175509</v>
+        <v>287.5684647439867</v>
       </c>
       <c r="C20" t="n">
-        <v>649.9915962972893</v>
+        <v>287.5684647439867</v>
       </c>
       <c r="D20" t="n">
-        <v>318.3632308394887</v>
+        <v>287.5684647439867</v>
       </c>
       <c r="E20" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="F20" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="G20" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="H20" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="I20" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="J20" t="n">
-        <v>73.23431383623529</v>
+        <v>61.45946368660771</v>
       </c>
       <c r="K20" t="n">
-        <v>194.3677081256515</v>
+        <v>168.7530630785</v>
       </c>
       <c r="L20" t="n">
-        <v>381.5461569470416</v>
+        <v>338.7620225311329</v>
       </c>
       <c r="M20" t="n">
-        <v>621.487684130914</v>
+        <v>559.5991845858335</v>
       </c>
       <c r="N20" t="n">
-        <v>869.925524454598</v>
+        <v>788.6235311795569</v>
       </c>
       <c r="O20" t="n">
-        <v>1091.183070957065</v>
+        <v>991.5494660546924</v>
       </c>
       <c r="P20" t="n">
-        <v>1245.520267063711</v>
+        <v>1130.241055754235</v>
       </c>
       <c r="Q20" t="n">
-        <v>1313.248327212891</v>
+        <v>1186.219917068946</v>
       </c>
       <c r="R20" t="n">
-        <v>1313.248327212891</v>
+        <v>1186.219917068946</v>
       </c>
       <c r="S20" t="n">
-        <v>1313.248327212891</v>
+        <v>1186.219917068946</v>
       </c>
       <c r="T20" t="n">
-        <v>1313.248327212891</v>
+        <v>1186.219917068946</v>
       </c>
       <c r="U20" t="n">
-        <v>1313.248327212891</v>
+        <v>1186.219917068946</v>
       </c>
       <c r="V20" t="n">
-        <v>1313.248327212891</v>
+        <v>1186.219917068946</v>
       </c>
       <c r="W20" t="n">
-        <v>1313.248327212891</v>
+        <v>1186.219917068946</v>
       </c>
       <c r="X20" t="n">
-        <v>981.61996175509</v>
+        <v>886.6694329606262</v>
       </c>
       <c r="Y20" t="n">
-        <v>981.61996175509</v>
+        <v>587.1189488523064</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="C21" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="D21" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="E21" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="F21" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="G21" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="H21" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="I21" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="J21" t="n">
-        <v>160.2518660491298</v>
+        <v>27.38129779292707</v>
       </c>
       <c r="K21" t="n">
-        <v>298.1101409112414</v>
+        <v>112.2351864465415</v>
       </c>
       <c r="L21" t="n">
-        <v>470.5653643302624</v>
+        <v>405.8246159211056</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1693440451379</v>
+        <v>611.6786869696587</v>
       </c>
       <c r="N21" t="n">
-        <v>932.0206995911849</v>
+        <v>837.3897476567086</v>
       </c>
       <c r="O21" t="n">
-        <v>1130.132840585454</v>
+        <v>1021.651476751687</v>
       </c>
       <c r="P21" t="n">
-        <v>1269.80223336495</v>
+        <v>1150.204692908121</v>
       </c>
       <c r="Q21" t="n">
-        <v>1313.248327212891</v>
+        <v>1186.219917068946</v>
       </c>
       <c r="R21" t="n">
-        <v>1313.248327212891</v>
+        <v>1171.697622770432</v>
       </c>
       <c r="S21" t="n">
-        <v>1313.248327212891</v>
+        <v>1024.202222333444</v>
       </c>
       <c r="T21" t="n">
-        <v>1116.926229425158</v>
+        <v>827.6407201690084</v>
       </c>
       <c r="U21" t="n">
-        <v>888.7983320024639</v>
+        <v>599.5089151667163</v>
       </c>
       <c r="V21" t="n">
-        <v>653.6462237707212</v>
+        <v>439.3361973118657</v>
       </c>
       <c r="W21" t="n">
-        <v>441.8767655147445</v>
+        <v>439.3361973118657</v>
       </c>
       <c r="X21" t="n">
-        <v>234.0252653092117</v>
+        <v>231.4846971063328</v>
       </c>
       <c r="Y21" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>318.1750129375645</v>
+        <v>270.6996335837204</v>
       </c>
       <c r="C22" t="n">
-        <v>149.2388300096576</v>
+        <v>171.637491923772</v>
       </c>
       <c r="D22" t="n">
-        <v>149.2388300096576</v>
+        <v>171.637491923772</v>
       </c>
       <c r="E22" t="n">
-        <v>149.2388300096576</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="F22" t="n">
-        <v>149.2388300096576</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="G22" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="H22" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="I22" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="J22" t="n">
-        <v>26.26496654425781</v>
+        <v>23.72439834137892</v>
       </c>
       <c r="K22" t="n">
-        <v>143.1150589356041</v>
+        <v>134.9043498767889</v>
       </c>
       <c r="L22" t="n">
-        <v>348.1693817207319</v>
+        <v>332.7028445274893</v>
       </c>
       <c r="M22" t="n">
-        <v>574.759537454593</v>
+        <v>551.6427468357707</v>
       </c>
       <c r="N22" t="n">
-        <v>801.3965021608564</v>
+        <v>770.8113640437574</v>
       </c>
       <c r="O22" t="n">
-        <v>994.7161258083058</v>
+        <v>957.2327599894778</v>
       </c>
       <c r="P22" t="n">
-        <v>1136.613778606802</v>
+        <v>1093.227787283485</v>
       </c>
       <c r="Q22" t="n">
-        <v>1151.421278114136</v>
+        <v>1103.948614848406</v>
       </c>
       <c r="R22" t="n">
-        <v>1151.421278114136</v>
+        <v>1103.948614848406</v>
       </c>
       <c r="S22" t="n">
-        <v>1151.421278114136</v>
+        <v>1103.948614848406</v>
       </c>
       <c r="T22" t="n">
-        <v>1151.421278114136</v>
+        <v>1103.948614848406</v>
       </c>
       <c r="U22" t="n">
-        <v>862.276671180412</v>
+        <v>814.8012918265679</v>
       </c>
       <c r="V22" t="n">
-        <v>607.5921829745251</v>
+        <v>560.116803620681</v>
       </c>
       <c r="W22" t="n">
-        <v>318.1750129375645</v>
+        <v>270.6996335837204</v>
       </c>
       <c r="X22" t="n">
-        <v>318.1750129375645</v>
+        <v>270.6996335837204</v>
       </c>
       <c r="Y22" t="n">
-        <v>318.1750129375645</v>
+        <v>270.6996335837204</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1510.345786565035</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="C23" t="n">
-        <v>1510.345786565035</v>
+        <v>1136.079510584979</v>
       </c>
       <c r="D23" t="n">
-        <v>1152.080087958285</v>
+        <v>777.8138119782286</v>
       </c>
       <c r="E23" t="n">
-        <v>766.2918353600404</v>
+        <v>392.0255593799844</v>
       </c>
       <c r="F23" t="n">
-        <v>355.3059305704328</v>
+        <v>392.0255593799844</v>
       </c>
       <c r="G23" t="n">
-        <v>355.3059305704328</v>
+        <v>392.0255593799844</v>
       </c>
       <c r="H23" t="n">
-        <v>51.24678656800311</v>
+        <v>87.96641537755465</v>
       </c>
       <c r="I23" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M23" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N23" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O23" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P23" t="n">
         <v>2360.886721764998</v>
@@ -6022,19 +6022,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U23" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V23" t="n">
-        <v>1977.695380320764</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W23" t="n">
-        <v>1977.695380320764</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X23" t="n">
-        <v>1604.229622059685</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y23" t="n">
-        <v>1604.229622059685</v>
+        <v>1505.042027525391</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K24" t="n">
-        <v>482.9033490193029</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L24" t="n">
-        <v>777.6069060507746</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.868925009995</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.15405360694</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O24" t="n">
-        <v>1860.224488783102</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q24" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R24" t="n">
         <v>2562.339328400155</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>536.0825277700245</v>
+        <v>514.9860105762135</v>
       </c>
       <c r="C25" t="n">
-        <v>367.1463448421176</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D25" t="n">
-        <v>367.1463448421176</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E25" t="n">
-        <v>219.2332512597245</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F25" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G25" t="n">
         <v>51.24678656800311</v>
@@ -6171,28 +6171,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S25" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T25" t="n">
-        <v>1590.095102652564</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U25" t="n">
-        <v>1300.976765156402</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V25" t="n">
-        <v>1046.292276950515</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W25" t="n">
-        <v>756.8751069135546</v>
+        <v>824.8383149077151</v>
       </c>
       <c r="X25" t="n">
-        <v>756.8751069135546</v>
+        <v>596.8487640096978</v>
       </c>
       <c r="Y25" t="n">
-        <v>536.0825277700245</v>
+        <v>596.8487640096978</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1272.660291726717</v>
+        <v>1165.733530939539</v>
       </c>
       <c r="C26" t="n">
-        <v>1272.660291726717</v>
+        <v>1165.733530939539</v>
       </c>
       <c r="D26" t="n">
-        <v>914.3945931199664</v>
+        <v>807.4678323327887</v>
       </c>
       <c r="E26" t="n">
-        <v>528.6063405217222</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F26" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G26" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H26" t="n">
         <v>117.6204357321147</v>
@@ -6226,25 +6226,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K26" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M26" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O26" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q26" t="n">
         <v>2542.25058172385</v>
@@ -6253,25 +6253,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T26" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U26" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V26" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W26" t="n">
-        <v>2422.86522202773</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X26" t="n">
-        <v>2049.39946376665</v>
+        <v>1165.733530939539</v>
       </c>
       <c r="Y26" t="n">
-        <v>1659.260131790839</v>
+        <v>1165.733530939539</v>
       </c>
     </row>
     <row r="27">
@@ -6287,16 +6287,16 @@
         <v>756.8511118155119</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E27" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G27" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H27" t="n">
         <v>71.67401812057902</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2261243354872</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C28" t="n">
-        <v>634.2899414075803</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D28" t="n">
-        <v>484.1733019952445</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E28" t="n">
-        <v>336.2602084128514</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F28" t="n">
         <v>219.2332512597245</v>
@@ -6414,22 +6414,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T28" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U28" t="n">
-        <v>1347.327782578335</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="V28" t="n">
-        <v>1092.643294372448</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="W28" t="n">
-        <v>803.2261243354872</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="X28" t="n">
-        <v>803.2261243354872</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y28" t="n">
-        <v>803.2261243354872</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1206.346846950667</v>
+        <v>891.5908846145765</v>
       </c>
       <c r="C29" t="n">
-        <v>837.3843300102556</v>
+        <v>891.5908846145765</v>
       </c>
       <c r="D29" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="E29" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F29" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G29" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H29" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I29" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J29" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872929</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M29" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N29" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O29" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P29" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q29" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R29" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T29" t="n">
-        <v>2517.225208561252</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U29" t="n">
-        <v>2263.644147825432</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V29" t="n">
-        <v>1932.581260481861</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W29" t="n">
-        <v>1579.812605211747</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X29" t="n">
-        <v>1206.346846950667</v>
+        <v>1278.190724678698</v>
       </c>
       <c r="Y29" t="n">
-        <v>1206.346846950667</v>
+        <v>1278.190724678698</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966389</v>
+        <v>931.304141096638</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155119</v>
+        <v>756.851111815511</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542597</v>
       </c>
       <c r="E30" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488042</v>
       </c>
       <c r="F30" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756892</v>
       </c>
       <c r="G30" t="n">
-        <v>165.4432786182523</v>
+        <v>165.4432786182514</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057837</v>
       </c>
       <c r="I30" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J30" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>590.2049751143501</v>
+        <v>614.5430248380222</v>
       </c>
       <c r="L30" t="n">
-        <v>884.9085321458217</v>
+        <v>909.2465818694939</v>
       </c>
       <c r="M30" t="n">
-        <v>1248.170551105042</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N30" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O30" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P30" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q30" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R30" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S30" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780095</v>
       </c>
       <c r="T30" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175225</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V30" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815394</v>
       </c>
       <c r="W30" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116706</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>665.1026499885492</v>
+        <v>775.4948683002141</v>
       </c>
       <c r="C31" t="n">
-        <v>496.1664670606423</v>
+        <v>606.5586853723072</v>
       </c>
       <c r="D31" t="n">
-        <v>346.0498276483066</v>
+        <v>456.4420459599714</v>
       </c>
       <c r="E31" t="n">
-        <v>198.1367340659135</v>
+        <v>308.5289523775783</v>
       </c>
       <c r="F31" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I31" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J31" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K31" t="n">
         <v>248.4064713020475</v>
@@ -6651,22 +6651,22 @@
         <v>1439.817372234358</v>
       </c>
       <c r="T31" t="n">
-        <v>1295.533244860336</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U31" t="n">
-        <v>1295.533244860336</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V31" t="n">
-        <v>1295.533244860336</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W31" t="n">
-        <v>1295.533244860336</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.543693962319</v>
+        <v>957.1433331304538</v>
       </c>
       <c r="Y31" t="n">
-        <v>846.7511148187889</v>
+        <v>957.1433331304538</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1164.26325471341</v>
+        <v>1444.690564856569</v>
       </c>
       <c r="C32" t="n">
-        <v>795.3007377729979</v>
+        <v>1075.728047916158</v>
       </c>
       <c r="D32" t="n">
-        <v>437.0350391662474</v>
+        <v>717.4623493094073</v>
       </c>
       <c r="E32" t="n">
-        <v>51.24678656800311</v>
+        <v>717.4623493094073</v>
       </c>
       <c r="F32" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H32" t="n">
         <v>51.24678656800311</v>
@@ -6703,22 +6703,22 @@
         <v>187.5281822362826</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N32" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O32" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P32" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q32" t="n">
         <v>2542.25058172385</v>
@@ -6727,25 +6727,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T32" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U32" t="n">
-        <v>2221.560555588174</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V32" t="n">
-        <v>1890.497668244604</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W32" t="n">
-        <v>1537.729012974489</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X32" t="n">
-        <v>1164.26325471341</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="Y32" t="n">
-        <v>1164.26325471341</v>
+        <v>1831.290404920691</v>
       </c>
     </row>
     <row r="33">
@@ -6785,13 +6785,13 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L33" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M33" t="n">
-        <v>1227.201367341571</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N33" t="n">
-        <v>1861.38035112061</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O33" t="n">
         <v>2199.840679460312</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>219.2332512597245</v>
+        <v>196.9593607670915</v>
       </c>
       <c r="C34" t="n">
-        <v>219.2332512597245</v>
+        <v>196.9593607670915</v>
       </c>
       <c r="D34" t="n">
-        <v>219.2332512597245</v>
+        <v>196.9593607670915</v>
       </c>
       <c r="E34" t="n">
-        <v>219.2332512597245</v>
+        <v>196.9593607670915</v>
       </c>
       <c r="F34" t="n">
-        <v>219.2332512597245</v>
+        <v>196.9593607670915</v>
       </c>
       <c r="G34" t="n">
         <v>51.24678656800311</v>
@@ -6885,25 +6885,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T34" t="n">
-        <v>1501.235377040282</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U34" t="n">
-        <v>1212.11703954412</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V34" t="n">
-        <v>957.4325513382325</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="W34" t="n">
-        <v>668.015381301272</v>
+        <v>606.5973764953485</v>
       </c>
       <c r="X34" t="n">
-        <v>440.0258304032546</v>
+        <v>378.6078255973312</v>
       </c>
       <c r="Y34" t="n">
-        <v>219.2332512597245</v>
+        <v>378.6078255973312</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1444.690564856569</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="C35" t="n">
-        <v>1444.690564856569</v>
+        <v>1236.203140240072</v>
       </c>
       <c r="D35" t="n">
-        <v>1444.690564856569</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E35" t="n">
-        <v>1058.902312258325</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F35" t="n">
-        <v>647.9164074687171</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G35" t="n">
-        <v>232.211657193006</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M35" t="n">
         <v>1220.470313923562</v>
@@ -6964,25 +6964,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S35" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T35" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U35" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V35" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W35" t="n">
-        <v>1831.290404920691</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X35" t="n">
-        <v>1831.290404920691</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="Y35" t="n">
-        <v>1831.290404920691</v>
+        <v>1249.079005265436</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G36" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I36" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J36" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K36" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L36" t="n">
-        <v>909.2465818694943</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M36" t="n">
-        <v>1272.508600828714</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.79372942566</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O36" t="n">
-        <v>1991.864164601821</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P36" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q36" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R36" t="n">
         <v>2562.339328400155</v>
@@ -7049,16 +7049,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V36" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y36" t="n">
         <v>1099.519478116707</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>716.8971877065476</v>
+        <v>331.7238083514195</v>
       </c>
       <c r="C37" t="n">
-        <v>547.9610047786407</v>
+        <v>331.7238083514195</v>
       </c>
       <c r="D37" t="n">
-        <v>397.8443653663049</v>
+        <v>181.6071689390838</v>
       </c>
       <c r="E37" t="n">
-        <v>249.9312717839118</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F37" t="n">
-        <v>103.0413242860015</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J37" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K37" t="n">
         <v>248.4064713020475</v>
@@ -7122,25 +7122,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S37" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T37" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U37" t="n">
-        <v>1347.327782578335</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V37" t="n">
-        <v>1347.327782578335</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W37" t="n">
-        <v>1347.327782578335</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="X37" t="n">
-        <v>1119.338231680317</v>
+        <v>734.1648523251894</v>
       </c>
       <c r="Y37" t="n">
-        <v>898.5456525367873</v>
+        <v>513.3722731816592</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1412.134398099142</v>
+        <v>2057.32755894284</v>
       </c>
       <c r="C38" t="n">
-        <v>1043.17188115873</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D38" t="n">
-        <v>684.90618255198</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E38" t="n">
-        <v>299.1179299537358</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F38" t="n">
-        <v>299.1179299537358</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G38" t="n">
-        <v>299.1179299537358</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H38" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I38" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816095</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L38" t="n">
-        <v>795.7553530872926</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N38" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O38" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P38" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R38" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S38" t="n">
-        <v>2562.339328400155</v>
+        <v>2443.927399006962</v>
       </c>
       <c r="T38" t="n">
-        <v>2562.339328400155</v>
+        <v>2443.927399006962</v>
       </c>
       <c r="U38" t="n">
-        <v>2562.339328400155</v>
+        <v>2443.927399006962</v>
       </c>
       <c r="V38" t="n">
-        <v>2562.339328400155</v>
+        <v>2443.927399006962</v>
       </c>
       <c r="W38" t="n">
-        <v>2562.339328400155</v>
+        <v>2443.927399006962</v>
       </c>
       <c r="X38" t="n">
-        <v>2188.873570139076</v>
+        <v>2443.927399006962</v>
       </c>
       <c r="Y38" t="n">
-        <v>1798.734238163264</v>
+        <v>2443.927399006962</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966389</v>
+        <v>931.304141096638</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155119</v>
+        <v>756.851111815511</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542597</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488042</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756892</v>
       </c>
       <c r="G39" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182514</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057837</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J39" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K39" t="n">
-        <v>614.5430248380231</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L39" t="n">
-        <v>909.2465818694948</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M39" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O39" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P39" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="R39" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S39" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780095</v>
       </c>
       <c r="T39" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175225</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V39" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815394</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y39" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116706</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>367.1463448421176</v>
+        <v>235.8623399222008</v>
       </c>
       <c r="C40" t="n">
-        <v>367.1463448421176</v>
+        <v>235.8623399222008</v>
       </c>
       <c r="D40" t="n">
-        <v>367.1463448421176</v>
+        <v>85.74570050986512</v>
       </c>
       <c r="E40" t="n">
-        <v>219.2332512597245</v>
+        <v>85.74570050986512</v>
       </c>
       <c r="F40" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G40" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H40" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I40" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K40" t="n">
         <v>248.4064713020475</v>
@@ -7374,10 +7374,10 @@
         <v>638.3033838959707</v>
       </c>
       <c r="X40" t="n">
-        <v>410.3138329979533</v>
+        <v>638.3033838959707</v>
       </c>
       <c r="Y40" t="n">
-        <v>367.1463448421176</v>
+        <v>417.5108047524405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1251.46096678957</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C41" t="n">
-        <v>882.4984498491588</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D41" t="n">
-        <v>524.2327512424083</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E41" t="n">
-        <v>138.4444986441641</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F41" t="n">
-        <v>138.4444986441641</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G41" t="n">
         <v>51.24678656800311</v>
@@ -7438,25 +7438,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S41" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T41" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U41" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V41" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W41" t="n">
-        <v>1624.92672505065</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X41" t="n">
-        <v>1251.46096678957</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y41" t="n">
-        <v>1251.46096678957</v>
+        <v>1246.899958573734</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J42" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L42" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M42" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N42" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O42" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P42" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q42" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R42" t="n">
         <v>2562.339328400155</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>198.1367340659135</v>
+        <v>307.7304265135356</v>
       </c>
       <c r="C43" t="n">
-        <v>198.1367340659135</v>
+        <v>307.7304265135356</v>
       </c>
       <c r="D43" t="n">
-        <v>198.1367340659135</v>
+        <v>307.7304265135356</v>
       </c>
       <c r="E43" t="n">
         <v>198.1367340659135</v>
@@ -7593,28 +7593,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S43" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T43" t="n">
-        <v>1480.138859846471</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U43" t="n">
-        <v>1191.020522350309</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V43" t="n">
-        <v>936.3360341444215</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W43" t="n">
-        <v>646.9188641074609</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="X43" t="n">
-        <v>418.9293132094435</v>
+        <v>307.7304265135356</v>
       </c>
       <c r="Y43" t="n">
-        <v>198.1367340659135</v>
+        <v>307.7304265135356</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1468.322398715839</v>
+        <v>778.4750021151654</v>
       </c>
       <c r="C44" t="n">
-        <v>1099.359881775428</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D44" t="n">
-        <v>741.0941831686771</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E44" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F44" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G44" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H44" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I44" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J44" t="n">
-        <v>187.5281822362816</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K44" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L44" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M44" t="n">
         <v>1220.470313923562</v>
@@ -7666,34 +7666,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P44" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q44" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R44" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400154</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U44" t="n">
-        <v>2525.619699590604</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V44" t="n">
-        <v>2194.556812247033</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W44" t="n">
-        <v>1841.788156976919</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X44" t="n">
-        <v>1468.322398715839</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y44" t="n">
-        <v>1468.322398715839</v>
+        <v>778.4750021151654</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966375</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155105</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542593</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488038</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756888</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182509</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057791</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I45" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5972052500112</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K45" t="n">
-        <v>560.1394111735138</v>
+        <v>482.9033490193025</v>
       </c>
       <c r="L45" t="n">
-        <v>854.8429682049854</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M45" t="n">
-        <v>1218.104987164205</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N45" t="n">
-        <v>1605.39011576115</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O45" t="n">
-        <v>1937.460550937312</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P45" t="n">
-        <v>2447.023413292608</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q45" t="n">
-        <v>2562.339328400154</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R45" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.617474780095</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.610846175225</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U45" t="n">
         <v>2004.520742047137</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.368633815394</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.131277087192</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.279776881659</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.519478116706</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>370.2996089082457</v>
+        <v>606.5973764953485</v>
       </c>
       <c r="C46" t="n">
-        <v>201.3634259803388</v>
+        <v>437.6611935674416</v>
       </c>
       <c r="D46" t="n">
-        <v>51.24678656800308</v>
+        <v>287.5445541551059</v>
       </c>
       <c r="E46" t="n">
-        <v>51.24678656800308</v>
+        <v>287.5445541551059</v>
       </c>
       <c r="F46" t="n">
-        <v>51.24678656800308</v>
+        <v>140.6546066571955</v>
       </c>
       <c r="G46" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H46" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I46" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J46" t="n">
-        <v>76.71595955312192</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K46" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L46" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M46" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N46" t="n">
         <v>1123.088724245823</v>
@@ -7833,25 +7833,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T46" t="n">
-        <v>1413.467639269232</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U46" t="n">
-        <v>1124.34930177307</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V46" t="n">
-        <v>1124.34930177307</v>
+        <v>896.0145465323091</v>
       </c>
       <c r="W46" t="n">
-        <v>1000.730203780033</v>
+        <v>606.5973764953485</v>
       </c>
       <c r="X46" t="n">
-        <v>772.7406528820155</v>
+        <v>606.5973764953485</v>
       </c>
       <c r="Y46" t="n">
-        <v>551.9480737384854</v>
+        <v>606.5973764953485</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.82100350776379</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K2" t="n">
-        <v>68.37996426625614</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L2" t="n">
-        <v>47.55688531513388</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M2" t="n">
-        <v>20.92686739226636</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N2" t="n">
-        <v>16.60507348116786</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.14966087982927</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P2" t="n">
-        <v>59.72805697682125</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q2" t="n">
-        <v>93.51262335026308</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>66.54876907979121</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K3" t="n">
-        <v>34.79817869043559</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.12044141380176</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q3" t="n">
-        <v>58.52562482607891</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>66.85797092510069</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L4" t="n">
-        <v>55.34730792350439</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M4" t="n">
-        <v>55.06478097631943</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N4" t="n">
-        <v>45.81856870604673</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
-        <v>62.83913578423567</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P4" t="n">
-        <v>73.02425275703001</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>79.82100350776379</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K5" t="n">
-        <v>68.37996426625614</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L5" t="n">
-        <v>47.55688531513388</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M5" t="n">
-        <v>20.92686739226639</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N5" t="n">
-        <v>16.60507348116786</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>29.14966087982927</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P5" t="n">
-        <v>59.72805697682125</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.51262335026311</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>66.54876907979123</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K6" t="n">
-        <v>34.79817869043561</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>12.12044141380177</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q6" t="n">
-        <v>58.52562482607891</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>66.8579709251007</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L7" t="n">
-        <v>55.34730792350439</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M7" t="n">
-        <v>55.06478097631943</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N7" t="n">
-        <v>45.81856870604673</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O7" t="n">
-        <v>62.83913578423567</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P7" t="n">
-        <v>73.02425275703003</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>74.31475871928936</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K8" t="n">
         <v>53.28984570098882</v>
@@ -8461,16 +8461,16 @@
         <v>28.8362588753597</v>
       </c>
       <c r="M8" t="n">
-        <v>4.474515194684224</v>
+        <v>4.658850007114239</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>9.161922983629779</v>
+        <v>13.72420959127265</v>
       </c>
       <c r="P8" t="n">
-        <v>47.23127172271754</v>
+        <v>47.04693691028752</v>
       </c>
       <c r="Q8" t="n">
         <v>80.70197082457096</v>
@@ -8613,7 +8613,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>60.67557455063191</v>
+        <v>65.23786115827478</v>
       </c>
       <c r="L10" t="n">
         <v>47.4359690887577</v>
@@ -8622,13 +8622,13 @@
         <v>51.285670034278</v>
       </c>
       <c r="N10" t="n">
-        <v>42.23779755379654</v>
+        <v>42.05346274136652</v>
       </c>
       <c r="O10" t="n">
-        <v>59.87999055852636</v>
+        <v>55.31770395088348</v>
       </c>
       <c r="P10" t="n">
-        <v>70.96632025130917</v>
+        <v>71.15065506373918</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069115</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>46.47712126909573</v>
+        <v>53.38057711014611</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>170.5890798015854</v>
+        <v>135.5785099863983</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>46.47712126909576</v>
+        <v>53.38057711014613</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49804446117687</v>
+        <v>0.4533740440598137</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>135.1251359423388</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>186.4490126143855</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>168.7434581780647</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,16 +10433,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M33" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>6.454437538930335</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3273467878355</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111058</v>
       </c>
       <c r="R39" t="n">
         <v>20.93778120154991</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>294.8344935184735</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>265.0304328515145</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.93778120154994</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.1100848867438</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H2" t="n">
-        <v>327.2605483852552</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I2" t="n">
-        <v>164.496149114352</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>74.95115227296735</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S2" t="n">
-        <v>181.8424978167795</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8750126833486</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.7053917498219</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H3" t="n">
-        <v>106.0724961650838</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I3" t="n">
-        <v>67.42608682026646</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.5380826090839</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S3" t="n">
-        <v>159.8302714297086</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5926354715572</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8994001458834</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H4" t="n">
-        <v>157.4706880844321</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I4" t="n">
-        <v>139.362079762321</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J4" t="n">
-        <v>55.53588833985387</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.36451971353327</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R4" t="n">
-        <v>153.2386143258456</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S4" t="n">
-        <v>214.6933049501571</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T4" t="n">
-        <v>225.6597533558751</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>414.1100848867438</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H5" t="n">
-        <v>327.2605483852552</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I5" t="n">
-        <v>164.496149114352</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>74.95115227296736</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S5" t="n">
-        <v>181.8424978167796</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8750126833486</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.7053917498219</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H6" t="n">
-        <v>106.0724961650838</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I6" t="n">
-        <v>67.42608682026646</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>60.53808260908391</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S6" t="n">
-        <v>159.8302714297086</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T6" t="n">
-        <v>197.5926354715572</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8994001458834</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H7" t="n">
-        <v>157.4706880844321</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I7" t="n">
-        <v>139.362079762321</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J7" t="n">
-        <v>55.53588833985387</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.36451971353327</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R7" t="n">
-        <v>153.2386143258456</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S7" t="n">
-        <v>214.6933049501571</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T7" t="n">
-        <v>225.6597533558751</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>378.1715550558377</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>360.7106051633647</v>
+        <v>361.2544297269957</v>
       </c>
       <c r="D8" t="n">
-        <v>350.6645795766711</v>
+        <v>350.1207550130401</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>377.3680834646189</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.9914553764875</v>
+        <v>409.4291687688446</v>
       </c>
       <c r="H8" t="n">
         <v>326.0456339133427</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>62.93700469168593</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S8" t="n">
         <v>179.1392278518137</v>
@@ -23105,7 +23105,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>142.8827789569959</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>52.03494045792093</v>
+        <v>52.57876502155196</v>
       </c>
       <c r="S9" t="n">
         <v>158.6512997408977</v>
       </c>
       <c r="T9" t="n">
-        <v>193.3183351791351</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8952243311651</v>
+        <v>221.3329377235222</v>
       </c>
       <c r="V9" t="n">
         <v>228.2383005417824</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1326965532767</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23187,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>141.8716760389263</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>140.8587614152884</v>
       </c>
       <c r="G10" t="n">
         <v>167.4027833335613</v>
       </c>
       <c r="H10" t="n">
-        <v>156.9975751224423</v>
+        <v>152.4352885147994</v>
       </c>
       <c r="I10" t="n">
         <v>137.761816287615</v>
       </c>
       <c r="J10" t="n">
-        <v>51.77372115642321</v>
+        <v>47.75525911241137</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23235,16 +23235,16 @@
         <v>225.4323882309924</v>
       </c>
       <c r="U10" t="n">
-        <v>282.2684838929392</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V10" t="n">
-        <v>247.5753567161851</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9607117289481</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>221.1473687813943</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23263,13 +23263,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>90.96916161917676</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>143.1621657402052</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>412.83417464571</v>
@@ -23278,7 +23278,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I11" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.7782232971188</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>82.75143752157024</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>138.4710596738843</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23354,10 +23354,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H12" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I12" t="n">
-        <v>43.92180400150558</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T12" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>57.91438844883515</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.6914976300573</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1502791920213</v>
       </c>
       <c r="G13" t="n">
         <v>166.8836670385466</v>
@@ -23436,10 +23436,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I13" t="n">
-        <v>122.1505735248085</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T13" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U13" t="n">
-        <v>22.54475050117128</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>101.5590117695013</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>122.4038561153564</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23554,13 +23554,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V14" t="n">
-        <v>95.47307296480832</v>
+        <v>64.03837846862865</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>78.62770038084643</v>
       </c>
       <c r="G15" t="n">
         <v>136.0227195864234</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,10 +23630,10 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>195.6253971606488</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I16" t="n">
         <v>122.1505735248085</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S16" t="n">
-        <v>137.2283339744939</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T16" t="n">
-        <v>223.2143458795659</v>
+        <v>205.0685790855982</v>
       </c>
       <c r="U16" t="n">
         <v>22.54475050117122</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>22.80911833508475</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.55656001120195</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>36.96080996778488</v>
+        <v>130.2296058567899</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>58.12806235344647</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>78.56396393848877</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>84.29854313682176</v>
+        <v>412.7205241435316</v>
       </c>
       <c r="H17" t="n">
-        <v>311.9042042061203</v>
+        <v>313.0297094238332</v>
       </c>
       <c r="I17" t="n">
-        <v>106.6882195192246</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>147.6735542813678</v>
+        <v>150.1778823808314</v>
       </c>
       <c r="T17" t="n">
-        <v>211.3111267666721</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1302839018292</v>
+        <v>251.1390758381082</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>31.19727920289841</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>20.27317417373365</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.9031099490949</v>
+        <v>135.9619112068852</v>
       </c>
       <c r="H18" t="n">
-        <v>98.32414298437899</v>
+        <v>98.89203934251186</v>
       </c>
       <c r="I18" t="n">
-        <v>39.80366517243138</v>
+        <v>41.82818216214208</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.72623536745925</v>
+        <v>14.37707135552866</v>
       </c>
       <c r="S18" t="n">
-        <v>144.9282388591887</v>
+        <v>146.0204464326186</v>
       </c>
       <c r="T18" t="n">
-        <v>97.20065346455293</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8466184484672</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>128.8993150187688</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7833903365585</v>
+        <v>166.8326873358276</v>
       </c>
       <c r="H19" t="n">
-        <v>151.4906082945443</v>
+        <v>151.9289034335009</v>
       </c>
       <c r="I19" t="n">
-        <v>119.1349796141116</v>
+        <v>120.6174748284963</v>
       </c>
       <c r="J19" t="n">
-        <v>7.982636268322878</v>
+        <v>11.46793411665095</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>125.2123700686819</v>
       </c>
       <c r="S19" t="n">
-        <v>202.9716148098555</v>
+        <v>203.830727060755</v>
       </c>
       <c r="T19" t="n">
-        <v>222.7858908801621</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>204.2006960125217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>86.17886239624409</v>
       </c>
       <c r="C20" t="n">
-        <v>36.96080996778488</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>26.37095981746029</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>92.75308841998321</v>
+        <v>120.7247443336801</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.6106249400444</v>
+        <v>412.7205241435316</v>
       </c>
       <c r="H20" t="n">
-        <v>311.9042042061203</v>
+        <v>313.0297094238332</v>
       </c>
       <c r="I20" t="n">
-        <v>106.6882195192247</v>
+        <v>110.9251085616634</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>147.6735542813678</v>
+        <v>150.1778823808314</v>
       </c>
       <c r="T20" t="n">
-        <v>211.3111267666721</v>
+        <v>211.7922105299372</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1302839018292</v>
+        <v>251.1390758381082</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>41.41901887524637</v>
+        <v>73.17612141123254</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>89.6829593888171</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.9031099490949</v>
+        <v>135.9619112068852</v>
       </c>
       <c r="H21" t="n">
-        <v>98.32414298437899</v>
+        <v>98.89203934251186</v>
       </c>
       <c r="I21" t="n">
-        <v>39.80366517243139</v>
+        <v>41.82818216214209</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.72623536745927</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>144.9282388591887</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24107,10 +24107,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>74.22959647312319</v>
       </c>
       <c r="W21" t="n">
-        <v>42.04321948750268</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24129,28 +24129,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>69.17530085527896</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>45.03926550581269</v>
+        <v>166.8326873358276</v>
       </c>
       <c r="H22" t="n">
-        <v>151.4906082945443</v>
+        <v>151.9289034335009</v>
       </c>
       <c r="I22" t="n">
-        <v>119.1349796141116</v>
+        <v>120.6174748284963</v>
       </c>
       <c r="J22" t="n">
-        <v>7.982636268322892</v>
+        <v>11.46793411665097</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.9957977197259</v>
+        <v>125.2123700686819</v>
       </c>
       <c r="S22" t="n">
-        <v>202.9716148098555</v>
+        <v>203.830727060755</v>
       </c>
       <c r="T22" t="n">
-        <v>222.7858908801621</v>
+        <v>222.996523513403</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>289.7888445237776</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.547702772954</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247049</v>
+        <v>29.35748015101447</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>98.78785428278788</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
         <v>147.2515091551289</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>174.8611887494988</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>211.1616034087118</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>38.58205390726368</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>29.56436044133564</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>49.55154957999704</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
-        <v>161.9952063397196</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>233.1206452904711</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>57.01830391625597</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>147.2515091551289</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>77.90740989693029</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>48.34119119012678</v>
       </c>
       <c r="G32" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>65.70991267247049</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
-        <v>120.3324500248345</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>22.05115158770673</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551289</v>
@@ -25125,10 +25125,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>86.89006039333881</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>369.9867352883707</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>121.8633306436525</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
         <v>65.70991267247049</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>17.3771840991993</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>115.0300077039858</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
         <v>147.2515091551289</v>
@@ -25362,16 +25362,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>55.62612061053005</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I38" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>6.224405299533686</v>
       </c>
       <c r="T38" t="n">
         <v>206.6581849802338</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>111.2671232204878</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
         <v>147.2515091551289</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>175.8488400778174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>325.2219678175546</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>301.0185525624054</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>206.6581849802338</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>135.4436552427007</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>37.93620712342329</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>66.00450837146593</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,10 +25882,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>214.6928176070074</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>124.6400186086267</v>
       </c>
     </row>
     <row r="45">
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>77.79285815650371</v>
       </c>
       <c r="H46" t="n">
         <v>147.2515091551289</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>164.140091323484</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>329432.8872218355</v>
+        <v>327791.6086349523</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>329432.8872218355</v>
+        <v>327791.6086349523</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>331356.1632853664</v>
+        <v>331356.1632853666</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>542838.9061307001</v>
+        <v>542838.9061307</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>542838.9061307003</v>
+        <v>542838.9061307</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>589280.6465886292</v>
+        <v>566449.4365466039</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>589280.6465886291</v>
+        <v>566449.4365466039</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>812384.1532968741</v>
+        <v>812384.1532968743</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>812384.1532968743</v>
+        <v>812384.1532968744</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>812384.1532968743</v>
+        <v>812384.1532968741</v>
       </c>
     </row>
     <row r="15">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>106891.0521860304</v>
+        <v>107598.3291737243</v>
       </c>
       <c r="C2" t="n">
-        <v>106891.0521860304</v>
+        <v>107598.3291737243</v>
       </c>
       <c r="D2" t="n">
         <v>108955.8949901827</v>
       </c>
       <c r="E2" t="n">
-        <v>183569.9230774012</v>
+        <v>183569.9230774011</v>
       </c>
       <c r="F2" t="n">
         <v>183569.9230774012</v>
       </c>
       <c r="G2" t="n">
-        <v>199415.5023004473</v>
+        <v>191625.6618700129</v>
       </c>
       <c r="H2" t="n">
-        <v>199415.5023004473</v>
+        <v>191625.661870013</v>
       </c>
       <c r="I2" t="n">
         <v>275374.4674448775</v>
       </c>
       <c r="J2" t="n">
-        <v>275374.4674448775</v>
+        <v>275374.4674448774</v>
       </c>
       <c r="K2" t="n">
-        <v>275374.4674448775</v>
+        <v>275374.4674448774</v>
       </c>
       <c r="L2" t="n">
         <v>275374.4674448775</v>
@@ -26349,13 +26349,13 @@
         <v>275374.4674448775</v>
       </c>
       <c r="N2" t="n">
-        <v>275374.4674448775</v>
+        <v>275374.4674448774</v>
       </c>
       <c r="O2" t="n">
         <v>275374.4674448775</v>
       </c>
       <c r="P2" t="n">
-        <v>275374.4674448774</v>
+        <v>275374.4674448775</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>285877.3248289937</v>
+        <v>308183.8838205543</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26689.18147135022</v>
+        <v>6864.158965221272</v>
       </c>
       <c r="E3" t="n">
-        <v>308655.4636758682</v>
+        <v>308655.463675868</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>60939.88690551702</v>
+        <v>30981.24745406276</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>282068.1396225259</v>
+        <v>311091.2408230299</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1154.673679814957</v>
+        <v>1154.673679815015</v>
       </c>
       <c r="M3" t="n">
-        <v>64581.61368012429</v>
+        <v>64581.6136801243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>15545.62186178486</v>
+        <v>7903.243379397295</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20636.51423996938</v>
+        <v>16951.9910219705</v>
       </c>
       <c r="C4" t="n">
-        <v>20636.51423996939</v>
+        <v>16951.9910219705</v>
       </c>
       <c r="D4" t="n">
         <v>16598.64506302712</v>
       </c>
       <c r="E4" t="n">
-        <v>12754.47490881741</v>
+        <v>12754.47490881742</v>
       </c>
       <c r="F4" t="n">
         <v>12754.47490881741</v>
       </c>
       <c r="G4" t="n">
-        <v>13470.22941988083</v>
+        <v>13118.35756022433</v>
       </c>
       <c r="H4" t="n">
-        <v>13470.22941988083</v>
+        <v>13118.35756022434</v>
       </c>
       <c r="I4" t="n">
         <v>17379.72927547097</v>
@@ -26444,19 +26444,19 @@
         <v>17379.72927547097</v>
       </c>
       <c r="K4" t="n">
-        <v>17379.72927547097</v>
+        <v>17379.72927547096</v>
       </c>
       <c r="L4" t="n">
         <v>17379.72927547097</v>
       </c>
       <c r="M4" t="n">
-        <v>17379.72927547096</v>
+        <v>17379.72927547097</v>
       </c>
       <c r="N4" t="n">
         <v>17379.72927547097</v>
       </c>
       <c r="O4" t="n">
-        <v>17379.72927547097</v>
+        <v>17379.72927547096</v>
       </c>
       <c r="P4" t="n">
         <v>17379.72927547096</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40095.05704060869</v>
+        <v>40599.70256325733</v>
       </c>
       <c r="C5" t="n">
-        <v>40095.05704060869</v>
+        <v>40599.70256325733</v>
       </c>
       <c r="D5" t="n">
         <v>41015.74224309583</v>
@@ -26484,10 +26484,10 @@
         <v>29420.20320426621</v>
       </c>
       <c r="G5" t="n">
-        <v>34560.02804020861</v>
+        <v>32033.24030031066</v>
       </c>
       <c r="H5" t="n">
-        <v>34560.02804020861</v>
+        <v>32033.24030031065</v>
       </c>
       <c r="I5" t="n">
         <v>59310.17243984471</v>
@@ -26496,7 +26496,7 @@
         <v>59310.17243984471</v>
       </c>
       <c r="K5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.1724398447</v>
       </c>
       <c r="L5" t="n">
         <v>59310.17243984471</v>
@@ -26505,13 +26505,13 @@
         <v>59310.17243984471</v>
       </c>
       <c r="N5" t="n">
-        <v>59310.17243984471</v>
+        <v>59310.1724398447</v>
       </c>
       <c r="O5" t="n">
         <v>59310.17243984471</v>
       </c>
       <c r="P5" t="n">
-        <v>59310.17243984468</v>
+        <v>59310.17243984471</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254305.4963820356</v>
+        <v>-259592.0841613089</v>
       </c>
       <c r="C6" t="n">
-        <v>31571.82844695809</v>
+        <v>48591.79965924539</v>
       </c>
       <c r="D6" t="n">
-        <v>10179.38724333478</v>
+        <v>43030.05482190099</v>
       </c>
       <c r="E6" t="n">
-        <v>-177587.9338983021</v>
+        <v>-168292.9902302257</v>
       </c>
       <c r="F6" t="n">
-        <v>131067.5297775662</v>
+        <v>140362.4734456423</v>
       </c>
       <c r="G6" t="n">
-        <v>80997.95270492531</v>
+        <v>114504.7991411434</v>
       </c>
       <c r="H6" t="n">
-        <v>141937.8396104423</v>
+        <v>145486.0465952062</v>
       </c>
       <c r="I6" t="n">
-        <v>-88611.03661485574</v>
+        <v>-112929.4213656572</v>
       </c>
       <c r="J6" t="n">
-        <v>193457.1030076701</v>
+        <v>198161.8194573726</v>
       </c>
       <c r="K6" t="n">
-        <v>193457.1030076701</v>
+        <v>198161.8194573726</v>
       </c>
       <c r="L6" t="n">
-        <v>192302.4293278552</v>
+        <v>197007.1457775577</v>
       </c>
       <c r="M6" t="n">
-        <v>128875.4893275459</v>
+        <v>133580.2057772483</v>
       </c>
       <c r="N6" t="n">
-        <v>193457.1030076702</v>
+        <v>198161.8194573725</v>
       </c>
       <c r="O6" t="n">
-        <v>177911.4811458853</v>
+        <v>190258.5760779754</v>
       </c>
       <c r="P6" t="n">
-        <v>193457.1030076701</v>
+        <v>198161.8194573727</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296.6723413123253</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="C3" t="n">
-        <v>296.6723413123253</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="D3" t="n">
         <v>326.1814319885848</v>
       </c>
       <c r="E3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="F3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="G3" t="n">
-        <v>669.6630030537925</v>
+        <v>642.3255761863613</v>
       </c>
       <c r="H3" t="n">
-        <v>669.6630030537924</v>
+        <v>642.3255761863612</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175391</v>
@@ -26779,7 +26779,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="P3" t="n">
-        <v>934.0648921175389</v>
+        <v>934.0648921175391</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>4.562286607642875</v>
       </c>
       <c r="E4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F4" t="n">
         <v>263.7138800015063</v>
       </c>
       <c r="G4" t="n">
-        <v>328.3120818032227</v>
+        <v>296.5549792672365</v>
       </c>
       <c r="H4" t="n">
-        <v>328.3120818032227</v>
+        <v>296.5549792672365</v>
       </c>
       <c r="I4" t="n">
         <v>640.5848321000389</v>
@@ -26816,22 +26816,22 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="L4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="M4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="O4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="P4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296.6723413123253</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29.50909067625952</v>
+        <v>6.360213490542151</v>
       </c>
       <c r="E3" t="n">
-        <v>287.8735817808936</v>
+        <v>287.8735817808933</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>55.60798928431416</v>
+        <v>28.27056241688297</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>264.4018890637467</v>
+        <v>291.7393159311779</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>64.59820180171641</v>
+        <v>32.84109926573021</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>312.2727502968162</v>
+        <v>344.0298528328024</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.562286607642932</v>
+        <v>4.562286607643159</v>
       </c>
       <c r="M4" t="n">
-        <v>259.1515933938632</v>
+        <v>259.1515933938633</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>64.59820180171641</v>
+        <v>32.84109926573043</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>64.59820180171641</v>
+        <v>32.84109926573021</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.192652628391256</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H2" t="n">
-        <v>12.21425373051196</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I2" t="n">
-        <v>45.97974045605396</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J2" t="n">
-        <v>101.2249010189225</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K2" t="n">
-        <v>151.7098867787244</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L2" t="n">
-        <v>188.2095296548534</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M2" t="n">
-        <v>209.4193658350064</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N2" t="n">
-        <v>212.8079901154231</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>200.9485505418575</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P2" t="n">
-        <v>171.5049387784483</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q2" t="n">
-        <v>128.7930665241864</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R2" t="n">
-        <v>74.91796566818233</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S2" t="n">
-        <v>27.17757176946579</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T2" t="n">
-        <v>5.220836880782728</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H3" t="n">
-        <v>6.162948071412645</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I3" t="n">
-        <v>21.97054603114862</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J3" t="n">
-        <v>60.28885758687547</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K3" t="n">
-        <v>103.0432602839234</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -31147,22 +31147,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>121.8539660005285</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.45614925994261</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R3" t="n">
-        <v>39.61975154355923</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S3" t="n">
-        <v>11.85289967412921</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T3" t="n">
-        <v>2.572093223264404</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H4" t="n">
-        <v>4.756484423007447</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I4" t="n">
-        <v>16.08839516493725</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J4" t="n">
-        <v>37.82329177681891</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K4" t="n">
-        <v>62.15528724543469</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L4" t="n">
-        <v>79.5373683577339</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M4" t="n">
-        <v>83.86100297128563</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N4" t="n">
-        <v>81.86697575918646</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O4" t="n">
-        <v>75.61740266760712</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P4" t="n">
-        <v>64.7037512921176</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.79752353816112</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R4" t="n">
-        <v>24.05477705132394</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S4" t="n">
-        <v>9.323293086815202</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T4" t="n">
-        <v>2.28583607240644</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.192652628391256</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H5" t="n">
-        <v>12.21425373051196</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I5" t="n">
-        <v>45.97974045605395</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J5" t="n">
-        <v>101.2249010189225</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K5" t="n">
-        <v>151.7098867787244</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L5" t="n">
-        <v>188.2095296548534</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M5" t="n">
-        <v>209.4193658350063</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N5" t="n">
-        <v>212.8079901154231</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>200.9485505418575</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P5" t="n">
-        <v>171.5049387784483</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q5" t="n">
-        <v>128.7930665241864</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R5" t="n">
-        <v>74.91796566818232</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S5" t="n">
-        <v>27.17757176946578</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T5" t="n">
-        <v>5.220836880782727</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.638125413388775</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H6" t="n">
-        <v>6.162948071412645</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I6" t="n">
-        <v>21.97054603114862</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J6" t="n">
-        <v>60.28885758687547</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K6" t="n">
-        <v>103.0432602839234</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
@@ -31384,22 +31384,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>121.8539660005285</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.45614925994261</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R6" t="n">
-        <v>39.61975154355923</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S6" t="n">
-        <v>11.85289967412921</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T6" t="n">
-        <v>2.572093223264404</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H7" t="n">
-        <v>4.756484423007447</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I7" t="n">
-        <v>16.08839516493725</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J7" t="n">
-        <v>37.82329177681891</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K7" t="n">
-        <v>62.15528724543468</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L7" t="n">
-        <v>79.5373683577339</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M7" t="n">
-        <v>83.86100297128563</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N7" t="n">
-        <v>81.86697575918646</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O7" t="n">
-        <v>75.61740266760712</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P7" t="n">
-        <v>64.70375129211759</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.79752353816112</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R7" t="n">
-        <v>24.05477705132394</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S7" t="n">
-        <v>9.3232930868152</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T7" t="n">
-        <v>2.28583607240644</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31612,13 +31612,13 @@
         <v>143.1166663875171</v>
       </c>
       <c r="M9" t="n">
-        <v>146.6963205296612</v>
+        <v>146.5119857172312</v>
       </c>
       <c r="N9" t="n">
         <v>135.9039986909762</v>
       </c>
       <c r="O9" t="n">
-        <v>146.9741962396573</v>
+        <v>147.1585310520873</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H11" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I11" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J11" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K11" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L11" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M11" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N11" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O11" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P11" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q11" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R11" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S11" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T11" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H12" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I12" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J12" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L12" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M12" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N12" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O12" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P12" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q12" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R12" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S12" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T12" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H13" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I13" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J13" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K13" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L13" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M13" t="n">
         <v>173.576239384051</v>
@@ -31934,25 +31934,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O13" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P13" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.72230707919122</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R13" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S13" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T13" t="n">
-        <v>4.731243548715652</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.692112575090621</v>
+        <v>2.582213371603461</v>
       </c>
       <c r="H17" t="n">
-        <v>27.57059790964683</v>
+        <v>26.44509269193395</v>
       </c>
       <c r="I17" t="n">
-        <v>103.7876700511813</v>
+        <v>99.55078100874252</v>
       </c>
       <c r="J17" t="n">
-        <v>228.4896896700978</v>
+        <v>219.1621321481294</v>
       </c>
       <c r="K17" t="n">
-        <v>342.4468149736839</v>
+        <v>328.467224168104</v>
       </c>
       <c r="L17" t="n">
-        <v>424.8355551936136</v>
+        <v>407.4926366393134</v>
       </c>
       <c r="M17" t="n">
-        <v>472.7114122008814</v>
+        <v>453.4140736865665</v>
       </c>
       <c r="N17" t="n">
-        <v>480.3603770548576</v>
+        <v>460.7507874286349</v>
       </c>
       <c r="O17" t="n">
-        <v>453.5906826363002</v>
+        <v>435.0739032147529</v>
       </c>
       <c r="P17" t="n">
-        <v>387.1291534387505</v>
+        <v>371.3255106032925</v>
       </c>
       <c r="Q17" t="n">
-        <v>290.7178718433175</v>
+        <v>278.8499942327434</v>
       </c>
       <c r="R17" t="n">
-        <v>169.1084165450364</v>
+        <v>162.204960703986</v>
       </c>
       <c r="S17" t="n">
-        <v>61.34651530487759</v>
+        <v>58.84218720541392</v>
       </c>
       <c r="T17" t="n">
-        <v>11.7847227974592</v>
+        <v>11.30363903419416</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2153690060072496</v>
+        <v>0.2065770697282768</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.440407214115705</v>
+        <v>1.381605956325381</v>
       </c>
       <c r="H18" t="n">
-        <v>13.91130125211747</v>
+        <v>13.3434048939846</v>
       </c>
       <c r="I18" t="n">
-        <v>49.5929676789837</v>
+        <v>47.56845068927299</v>
       </c>
       <c r="J18" t="n">
-        <v>136.0868938564316</v>
+        <v>130.5314644965133</v>
       </c>
       <c r="K18" t="n">
-        <v>232.5941772021838</v>
+        <v>223.0990635703138</v>
       </c>
       <c r="L18" t="n">
-        <v>312.7515751526226</v>
+        <v>299.9842231047719</v>
       </c>
       <c r="M18" t="n">
-        <v>364.9663366643169</v>
+        <v>350.0674390215669</v>
       </c>
       <c r="N18" t="n">
-        <v>374.6259096045929</v>
+        <v>359.3326824742929</v>
       </c>
       <c r="O18" t="n">
-        <v>342.7095181760291</v>
+        <v>328.719203126241</v>
       </c>
       <c r="P18" t="n">
-        <v>275.0546021410946</v>
+        <v>263.8261409056774</v>
       </c>
       <c r="Q18" t="n">
-        <v>183.8667173667696</v>
+        <v>176.3607883898855</v>
       </c>
       <c r="R18" t="n">
-        <v>89.43159878518388</v>
+        <v>85.78076279711448</v>
       </c>
       <c r="S18" t="n">
-        <v>26.75493224464915</v>
+        <v>25.66272467121923</v>
       </c>
       <c r="T18" t="n">
-        <v>5.805851884966369</v>
+        <v>5.56884155203081</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09476363250761219</v>
+        <v>0.09089512870561721</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.207589021900281</v>
+        <v>1.158292022631143</v>
       </c>
       <c r="H19" t="n">
-        <v>10.73656421289524</v>
+        <v>10.29826907393872</v>
       </c>
       <c r="I19" t="n">
-        <v>36.31549531314666</v>
+        <v>34.83300009876203</v>
       </c>
       <c r="J19" t="n">
-        <v>85.3765438483499</v>
+        <v>81.89124600002182</v>
       </c>
       <c r="K19" t="n">
-        <v>140.2998881807781</v>
+        <v>134.5724731747819</v>
       </c>
       <c r="L19" t="n">
-        <v>179.5355533105201</v>
+        <v>172.2064339828156</v>
       </c>
       <c r="M19" t="n">
-        <v>189.2950682238777</v>
+        <v>181.5675395111709</v>
       </c>
       <c r="N19" t="n">
-        <v>184.794054596795</v>
+        <v>177.2502692450004</v>
       </c>
       <c r="O19" t="n">
-        <v>170.6872192045962</v>
+        <v>163.7193124351729</v>
       </c>
       <c r="P19" t="n">
-        <v>146.0524031578304</v>
+        <v>140.0901551734975</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.1191134611227</v>
+        <v>96.99116200414056</v>
       </c>
       <c r="R19" t="n">
-        <v>54.29759365744355</v>
+        <v>52.08102130848757</v>
       </c>
       <c r="S19" t="n">
-        <v>21.04498322711672</v>
+        <v>20.18587097621728</v>
       </c>
       <c r="T19" t="n">
-        <v>5.159698548119383</v>
+        <v>4.94906591487852</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0658684921036518</v>
+        <v>0.06317956487078971</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.692112575090621</v>
+        <v>2.58221337160346</v>
       </c>
       <c r="H20" t="n">
-        <v>27.57059790964682</v>
+        <v>26.44509269193394</v>
       </c>
       <c r="I20" t="n">
-        <v>103.7876700511813</v>
+        <v>99.55078100874249</v>
       </c>
       <c r="J20" t="n">
-        <v>228.4896896700978</v>
+        <v>219.1621321481294</v>
       </c>
       <c r="K20" t="n">
-        <v>342.4468149736838</v>
+        <v>328.4672241681039</v>
       </c>
       <c r="L20" t="n">
-        <v>424.8355551936135</v>
+        <v>407.4926366393134</v>
       </c>
       <c r="M20" t="n">
-        <v>472.7114122008813</v>
+        <v>453.4140736865664</v>
       </c>
       <c r="N20" t="n">
-        <v>480.3603770548576</v>
+        <v>460.7507874286348</v>
       </c>
       <c r="O20" t="n">
-        <v>453.5906826363002</v>
+        <v>435.0739032147529</v>
       </c>
       <c r="P20" t="n">
-        <v>387.1291534387504</v>
+        <v>371.3255106032923</v>
       </c>
       <c r="Q20" t="n">
-        <v>290.7178718433175</v>
+        <v>278.8499942327434</v>
       </c>
       <c r="R20" t="n">
-        <v>169.1084165450364</v>
+        <v>162.204960703986</v>
       </c>
       <c r="S20" t="n">
-        <v>61.34651530487758</v>
+        <v>58.84218720541391</v>
       </c>
       <c r="T20" t="n">
-        <v>11.7847227974592</v>
+        <v>11.30363903419415</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2153690060072496</v>
+        <v>0.2065770697282768</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.440407214115704</v>
+        <v>1.381605956325381</v>
       </c>
       <c r="H21" t="n">
-        <v>13.91130125211746</v>
+        <v>13.3434048939846</v>
       </c>
       <c r="I21" t="n">
-        <v>49.59296767898369</v>
+        <v>47.56845068927299</v>
       </c>
       <c r="J21" t="n">
-        <v>136.0868938564315</v>
+        <v>130.5314644965133</v>
       </c>
       <c r="K21" t="n">
-        <v>232.5941772021837</v>
+        <v>223.0990635703138</v>
       </c>
       <c r="L21" t="n">
-        <v>312.7515751526226</v>
+        <v>299.9842231047718</v>
       </c>
       <c r="M21" t="n">
-        <v>364.9663366643168</v>
+        <v>350.0674390215668</v>
       </c>
       <c r="N21" t="n">
-        <v>374.6259096045928</v>
+        <v>359.3326824742928</v>
       </c>
       <c r="O21" t="n">
-        <v>342.709518176029</v>
+        <v>328.7192031262409</v>
       </c>
       <c r="P21" t="n">
-        <v>275.0546021410945</v>
+        <v>263.8261409056773</v>
       </c>
       <c r="Q21" t="n">
-        <v>183.8667173667696</v>
+        <v>176.3607883898855</v>
       </c>
       <c r="R21" t="n">
-        <v>89.43159878518387</v>
+        <v>85.78076279711446</v>
       </c>
       <c r="S21" t="n">
-        <v>26.75493224464914</v>
+        <v>25.66272467121923</v>
       </c>
       <c r="T21" t="n">
-        <v>5.805851884966368</v>
+        <v>5.568841552030809</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09476363250761217</v>
+        <v>0.0908951287056172</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.207589021900281</v>
+        <v>1.158292022631143</v>
       </c>
       <c r="H22" t="n">
-        <v>10.73656421289524</v>
+        <v>10.29826907393872</v>
       </c>
       <c r="I22" t="n">
-        <v>36.31549531314665</v>
+        <v>34.83300009876202</v>
       </c>
       <c r="J22" t="n">
-        <v>85.37654384834988</v>
+        <v>81.89124600002181</v>
       </c>
       <c r="K22" t="n">
-        <v>140.2998881807781</v>
+        <v>134.5724731747819</v>
       </c>
       <c r="L22" t="n">
-        <v>179.53555331052</v>
+        <v>172.2064339828156</v>
       </c>
       <c r="M22" t="n">
-        <v>189.2950682238777</v>
+        <v>181.5675395111709</v>
       </c>
       <c r="N22" t="n">
-        <v>184.794054596795</v>
+        <v>177.2502692450004</v>
       </c>
       <c r="O22" t="n">
-        <v>170.6872192045962</v>
+        <v>163.7193124351729</v>
       </c>
       <c r="P22" t="n">
-        <v>146.0524031578303</v>
+        <v>140.0901551734975</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.1191134611227</v>
+        <v>96.99116200414053</v>
       </c>
       <c r="R22" t="n">
-        <v>54.29759365744354</v>
+        <v>52.08102130848756</v>
       </c>
       <c r="S22" t="n">
-        <v>21.04498322711671</v>
+        <v>20.18587097621728</v>
       </c>
       <c r="T22" t="n">
-        <v>5.159698548119382</v>
+        <v>4.949065914878519</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06586849210365178</v>
+        <v>0.0631795648707897</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H44" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I44" t="n">
         <v>144.7659768979354</v>
@@ -34371,37 +34371,37 @@
         <v>318.7038799491899</v>
       </c>
       <c r="K44" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L44" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M44" t="n">
-        <v>659.3512441730002</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N44" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O44" t="n">
-        <v>632.6811099166592</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P44" t="n">
-        <v>539.9786897190643</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q44" t="n">
-        <v>405.501508014705</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R44" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S44" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T44" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H45" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I45" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J45" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K45" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L45" t="n">
-        <v>436.2347404177242</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M45" t="n">
-        <v>509.0653662040586</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N45" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O45" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P45" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q45" t="n">
         <v>256.462496416876</v>
@@ -34477,7 +34477,7 @@
         <v>37.31853601997901</v>
       </c>
       <c r="T45" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U45" t="n">
         <v>0.1321789941675763</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H46" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I46" t="n">
-        <v>50.65387972335769</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J46" t="n">
         <v>119.0856174753787</v>
@@ -34532,10 +34532,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L46" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M46" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N46" t="n">
         <v>257.7559726067958</v>
@@ -34544,22 +34544,22 @@
         <v>238.0793597154672</v>
       </c>
       <c r="P46" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q46" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R46" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S46" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T46" t="n">
-        <v>7.196893431069559</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09187523529024982</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4.377951795212859</v>
       </c>
       <c r="N8" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P8" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>4.562286607642875</v>
       </c>
       <c r="M9" t="n">
-        <v>4.562286607642875</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="N9" t="n">
         <v>4.562286607642875</v>
       </c>
       <c r="O9" t="n">
-        <v>4.377951795212859</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -35342,13 +35342,13 @@
         <v>4.562286607642875</v>
       </c>
       <c r="N10" t="n">
+        <v>4.377951795212859</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.377951795212859</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K11" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L11" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M11" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N11" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O11" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P11" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>97.32166909127285</v>
       </c>
       <c r="K12" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763041</v>
       </c>
       <c r="L12" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M12" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N12" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O12" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P12" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35585,10 +35585,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P13" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>47.44378514341153</v>
+        <v>38.11622762144313</v>
       </c>
       <c r="K17" t="n">
-        <v>122.3569639287034</v>
+        <v>108.3773731231234</v>
       </c>
       <c r="L17" t="n">
-        <v>189.0691402236263</v>
+        <v>171.7262216693262</v>
       </c>
       <c r="M17" t="n">
-        <v>242.3651789736087</v>
+        <v>223.0678404592938</v>
       </c>
       <c r="N17" t="n">
-        <v>250.9473134582667</v>
+        <v>231.3377238320439</v>
       </c>
       <c r="O17" t="n">
-        <v>223.4924712146135</v>
+        <v>204.9756917930662</v>
       </c>
       <c r="P17" t="n">
-        <v>155.896157683481</v>
+        <v>140.0925148480229</v>
       </c>
       <c r="Q17" t="n">
-        <v>68.41218196886805</v>
+        <v>56.54430435829394</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>9.249267189764879</v>
+        <v>3.693837829846615</v>
       </c>
       <c r="K18" t="n">
-        <v>94.75273822782478</v>
+        <v>85.25762459595484</v>
       </c>
       <c r="L18" t="n">
-        <v>174.1971953727485</v>
+        <v>161.4298433248977</v>
       </c>
       <c r="M18" t="n">
-        <v>222.8323027422986</v>
+        <v>207.9334050995486</v>
       </c>
       <c r="N18" t="n">
-        <v>243.2841975212596</v>
+        <v>227.9909703909596</v>
       </c>
       <c r="O18" t="n">
-        <v>200.1132737315846</v>
+        <v>186.1229586817965</v>
       </c>
       <c r="P18" t="n">
-        <v>311.6692745283497</v>
+        <v>265.4302434777455</v>
       </c>
       <c r="Q18" t="n">
-        <v>43.8849432807481</v>
+        <v>36.37901430386398</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>118.0303963548953</v>
+        <v>112.302981348899</v>
       </c>
       <c r="L19" t="n">
-        <v>207.1255785708362</v>
+        <v>199.7964592431318</v>
       </c>
       <c r="M19" t="n">
-        <v>228.8789451857183</v>
+        <v>221.1514164730115</v>
       </c>
       <c r="N19" t="n">
-        <v>228.9262269760236</v>
+        <v>221.382441624229</v>
       </c>
       <c r="O19" t="n">
-        <v>195.2723471186359</v>
+        <v>188.3044403492126</v>
       </c>
       <c r="P19" t="n">
-        <v>143.3309624227238</v>
+        <v>137.368714438391</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.95707020942828</v>
+        <v>10.82911875244618</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>47.4437851434115</v>
+        <v>38.1162276214431</v>
       </c>
       <c r="K20" t="n">
-        <v>122.3569639287033</v>
+        <v>108.3773731231234</v>
       </c>
       <c r="L20" t="n">
-        <v>189.0691402236263</v>
+        <v>171.7262216693262</v>
       </c>
       <c r="M20" t="n">
-        <v>242.3651789736086</v>
+        <v>223.0678404592937</v>
       </c>
       <c r="N20" t="n">
-        <v>250.9473134582666</v>
+        <v>231.3377238320439</v>
       </c>
       <c r="O20" t="n">
-        <v>223.4924712146135</v>
+        <v>204.9756917930661</v>
       </c>
       <c r="P20" t="n">
-        <v>155.8961576834809</v>
+        <v>140.0925148480228</v>
       </c>
       <c r="Q20" t="n">
-        <v>68.412181968868</v>
+        <v>56.54430435829389</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>135.3403025301737</v>
+        <v>3.693837829846615</v>
       </c>
       <c r="K21" t="n">
-        <v>139.2507826890016</v>
+        <v>85.71099864001462</v>
       </c>
       <c r="L21" t="n">
-        <v>174.1971953727484</v>
+        <v>296.5549792672365</v>
       </c>
       <c r="M21" t="n">
-        <v>222.8323027422985</v>
+        <v>207.9334050995485</v>
       </c>
       <c r="N21" t="n">
-        <v>243.2841975212595</v>
+        <v>227.9909703909595</v>
       </c>
       <c r="O21" t="n">
-        <v>200.1132737315846</v>
+        <v>186.1229586817965</v>
       </c>
       <c r="P21" t="n">
-        <v>141.0801947267643</v>
+        <v>129.8517334913471</v>
       </c>
       <c r="Q21" t="n">
-        <v>43.88494328074808</v>
+        <v>36.37901430386395</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>118.0303963548953</v>
+        <v>112.302981348899</v>
       </c>
       <c r="L22" t="n">
-        <v>207.1255785708362</v>
+        <v>199.7964592431317</v>
       </c>
       <c r="M22" t="n">
-        <v>228.8789451857183</v>
+        <v>221.1514164730115</v>
       </c>
       <c r="N22" t="n">
-        <v>228.9262269760236</v>
+        <v>221.382441624229</v>
       </c>
       <c r="O22" t="n">
-        <v>195.2723471186358</v>
+        <v>188.3044403492126</v>
       </c>
       <c r="P22" t="n">
-        <v>143.3309624227238</v>
+        <v>137.368714438391</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.95707020942827</v>
+        <v>10.82911875244615</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K24" t="n">
-        <v>373.0365088578703</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L24" t="n">
         <v>297.6803606378501</v>
@@ -36454,13 +36454,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P24" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R24" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K30" t="n">
-        <v>355.3309544215495</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L30" t="n">
         <v>297.6803606378501</v>
@@ -36934,7 +36934,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R30" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L33" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M33" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N33" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O33" t="n">
-        <v>341.8791195350533</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P33" t="n">
         <v>249.6795291235322</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K36" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L36" t="n">
-        <v>297.6803606378501</v>
+        <v>484.1293732522357</v>
       </c>
       <c r="M36" t="n">
         <v>366.9313322820404</v>
@@ -37402,13 +37402,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P36" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q36" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K39" t="n">
-        <v>379.9148430313203</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378501</v>
@@ -37642,7 +37642,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q39" t="n">
-        <v>326.5580100667036</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378501</v>
@@ -37873,7 +37873,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O42" t="n">
-        <v>630.2591755145964</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P42" t="n">
         <v>249.6795291235322</v>
@@ -37882,7 +37882,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K44" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L44" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M44" t="n">
-        <v>429.0050109457275</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N44" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O44" t="n">
-        <v>402.5828984949725</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P44" t="n">
-        <v>308.7456939637947</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q44" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R44" t="n">
-        <v>20.29166330939896</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.98022089091734</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K45" t="n">
-        <v>451.0527332560633</v>
+        <v>373.0365088578699</v>
       </c>
       <c r="L45" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M45" t="n">
-        <v>366.9313322820403</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N45" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O45" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P45" t="n">
-        <v>514.7099619750467</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q45" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.72643735870589</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K46" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L46" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M46" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N46" t="n">
         <v>301.8881449860244</v>
@@ -38192,10 +38192,10 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P46" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
